--- a/output/google_maps_data_SMP_Sleman.xlsx
+++ b/output/google_maps_data_SMP_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 555864</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.766637</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.766637</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.363827</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+-+SMA+Budi+Utama/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58451f9e4513:0x307dd6484eb5f66e!8m2!3d-7.7666373!4d110.363827!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g6mdr61x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+-+SMA+Budi+Utama/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58451f9e4513:0x307dd6484eb5f66e!8m2!3d-7.7666373!4d110.363827!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g6mdr61x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>(0274) 621392</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>-7.775598</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.775598</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.338576</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Gamping%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%92%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B6%EA%A6%81/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58752e19e6ff:0xfc6a2f7d3d34a0f0!8m2!3d-7.7755978!4d110.3385764!15sCgpTTVAgU2xlbWFukgEGc2Nob29s4AEA!16s%2Fg%2F1hm3559sy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Gamping%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%92%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%B6%EA%A6%81/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58752e19e6ff:0xfc6a2f7d3d34a0f0!8m2!3d-7.7755978!4d110.3385764!15sCgpTTVAgU2xlbWFukgEGc2Nob29s4AEA!16s%2Fg%2F1hm3559sy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -593,25 +586,24 @@
           <t>(0274) 585134</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.760427</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.760427</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.385517</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+5+Depok/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59aebd6eec95:0xd5eadef4c063fe50!8m2!3d-7.7604266!4d110.3855165!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F113qbn1zg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+5+Depok/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59aebd6eec95:0xd5eadef4c063fe50!8m2!3d-7.7604266!4d110.3855165!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F113qbn1zg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -638,25 +630,24 @@
           <t>(0274) 586711</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.752813</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.752813</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.364781</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+N+2+MLATI/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58f7c8a12099:0x7985de8f3c47ab2b!8m2!3d-7.7528128!4d110.3647814!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzw75w4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+N+2+MLATI/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58f7c8a12099:0x7985de8f3c47ab2b!8m2!3d-7.7528128!4d110.3647814!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzw75w4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -683,25 +674,24 @@
           <t>(0274) 560135</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.778505</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.778505</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.39061</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Depok/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59c61a7e2db7:0x3249da25090bb4f9!8m2!3d-7.7785054!4d110.3906098!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b64b7d0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Depok/@-7.7666373,110.2917292,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59c61a7e2db7:0x3249da25090bb4f9!8m2!3d-7.7785054!4d110.3906098!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b64b7d0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -724,25 +714,24 @@
           <t>(0274) 485542</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.773774</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.773774</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.411991</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Depok+Sleman/@-7.7737738,110.339893,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59ed2fed346b:0x2d0db38f30f35a01!8m2!3d-7.7737738!4d110.4119908!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b66gnzv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Depok+Sleman/@-7.7737738,110.339893,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59ed2fed346b:0x2d0db38f30f35a01!8m2!3d-7.7737738!4d110.4119908!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b66gnzv3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -769,25 +758,24 @@
           <t>(0274) 623619</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.759741</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.759741</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.366046</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Dr.+Wahidin+Mlati/@-7.7597407,110.2939484,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5859fed75a63:0x66e642fef90ec6cc!8m2!3d-7.7597407!4d110.3660462!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm3kcyv7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Dr.+Wahidin+Mlati/@-7.7597407,110.2939484,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5859fed75a63:0x66e642fef90ec6cc!8m2!3d-7.7597407!4d110.3660462!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm3kcyv7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -814,25 +802,24 @@
           <t>(0274) 881738</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.752645</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.752645</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.39505</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Depok/@-7.7597407,110.2939484,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a590996b7e787:0x25351784ab9dddd1!8m2!3d-7.752645!4d110.3950496!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F112yf_dn_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Depok/@-7.7597407,110.2939484,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a590996b7e787:0x25351784ab9dddd1!8m2!3d-7.752645!4d110.3950496!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F112yf_dn_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -855,25 +842,24 @@
           <t>0882-3352-8756</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>-7.772415</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.772415</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.402767</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Sains+Wahid+Hasyim+(SMP+Sains+Al+Qur'an)/@-7.7724152,110.3306692,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59d702b7d0b1:0x27a96de974726d8a!8m2!3d-7.7724152!4d110.402767!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11h046lkvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Sains+Wahid+Hasyim+(SMP+Sains+Al+Qur'an)/@-7.7724152,110.3306692,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59d702b7d0b1:0x27a96de974726d8a!8m2!3d-7.7724152!4d110.402767!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11h046lkvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -900,25 +886,24 @@
           <t>(0274) 6499254</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>-7.7666</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.7666</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.328883</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Alam+Yogyakarta+(SMP+IT+Alam+Nurul+Islam)/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7d828a87fc7:0xdae50058c4ced33c!8m2!3d-7.7665995!4d110.3288832!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6rzcj6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Alam+Yogyakarta+(SMP+IT+Alam+Nurul+Islam)/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7d828a87fc7:0xdae50058c4ced33c!8m2!3d-7.7665995!4d110.3288832!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6rzcj6m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -941,25 +926,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.772681</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.772681</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.341883</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Teladan/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a597cb171356f:0x157712c060828a9!8m2!3d-7.7726806!4d110.3418833!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11nn1bhqln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Teladan/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a597cb171356f:0x157712c060828a9!8m2!3d-7.7726806!4d110.3418833!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11nn1bhqln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -982,25 +966,24 @@
           <t>(0274) 7481147</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>-7.761441</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.761441</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.345883</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Gamping/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a587d51bdf5f3:0x6259a37e1d0fb71b!8m2!3d-7.7614413!4d110.3458834!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_byj21?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Gamping/@-7.7665995,110.2567854,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a587d51bdf5f3:0x6259a37e1d0fb71b!8m2!3d-7.7614413!4d110.3458834!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_byj21?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1027,25 +1010,24 @@
           <t>(0274) 487342</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.790763</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.790763</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.410472</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Angkasa+Adisutjipto/@-7.7907627,110.338374,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59e475e58991:0x9bfcca469eb968c8!8m2!3d-7.7907627!4d110.4104718!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5xxyml?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Angkasa+Adisutjipto/@-7.7907627,110.338374,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59e475e58991:0x9bfcca469eb968c8!8m2!3d-7.7907627!4d110.4104718!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5xxyml?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1072,25 +1054,24 @@
           <t>(0274) 869879</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>-7.737387</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.737387</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.361915</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Mlati/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58e97471d563:0x3f0ef51eb55858d0!8m2!3d-7.7373866!4d110.3619145!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11crydl9c6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Mlati/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58e97471d563:0x3f0ef51eb55858d0!8m2!3d-7.7373866!4d110.3619145!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11crydl9c6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1117,25 +1098,24 @@
           <t>(0274) 868311</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.716378</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.716378</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.358871</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sleman/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f4a8d932367:0x7a4134940ecec2aa!8m2!3d-7.7163782!4d110.3588714!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzqyw8z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sleman/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f4a8d932367:0x7a4134940ecec2aa!8m2!3d-7.7163782!4d110.3588714!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzqyw8z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1162,25 +1142,24 @@
           <t>(0274) 868330</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.690037</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.690037</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.342765</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sleman+%EA%A7%8B%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%8C%EA%A6%A9%EA%A7%80%EA%A7%88%EA%A6%A5%EA%A6%BA%EA%A7%89+%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%B1%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A7%88/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f6855555555:0x44ca1578e9f6abe9!8m2!3d-7.6900366!4d110.3427646!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf5vvz84?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sleman+%EA%A7%8B%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%8C%EA%A6%A9%EA%A7%80%EA%A7%88%EA%A6%A5%EA%A6%BA%EA%A7%89+%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%B1%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A7%88/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f6855555555:0x44ca1578e9f6abe9!8m2!3d-7.6900366!4d110.3427646!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf5vvz84?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1203,25 +1182,24 @@
           <t>(0274) 6499097</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.767126</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.767126</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.331859</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Ma'arif+Gamping/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5877f13a8e47:0xdff7e6d1f7366f3e!8m2!3d-7.7671259!4d110.331859!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6rw2zzx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Ma'arif+Gamping/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5877f13a8e47:0xdff7e6d1f7366f3e!8m2!3d-7.7671259!4d110.331859!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6rw2zzx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1248,25 +1226,24 @@
           <t>(0274) 7778912</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.9</v>
+        <v>-7.74507</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.74507</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.337359</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+NEGERI+3+MLATI/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a599d0b3cb661:0xdf0655c7b26e885a!8m2!3d-7.74507!4d110.3373588!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11j2xpl61_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+NEGERI+3+MLATI/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a599d0b3cb661:0xdf0655c7b26e885a!8m2!3d-7.74507!4d110.3373588!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11j2xpl61_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1289,25 +1266,24 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.772236</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.772236</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.333114</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Gamping/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5875d95da1bd:0x8776ef0c474f9f3e!8m2!3d-7.7722361!4d110.3331141!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5536kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Gamping/@-7.7373866,110.2898167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5875d95da1bd:0x8776ef0c474f9f3e!8m2!3d-7.7722361!4d110.3331141!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5536kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1330,25 +1306,24 @@
           <t>(0274) 4353972</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>-7.821167</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.821167</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.42425</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Sunan+Averroes/@-7.8211669,110.3521526,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a573316c14efb:0x9de563cbf86252a4!8m2!3d-7.8211669!4d110.4242504!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6b7v2g6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Sunan+Averroes/@-7.8211669,110.3521526,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a573316c14efb:0x9de563cbf86252a4!8m2!3d-7.8211669!4d110.4242504!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6b7v2g6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1375,25 +1350,24 @@
           <t>(0274) 868810</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.683773</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.683773</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.339293</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sleman/@-7.683773,110.2671947,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f7b21397913:0xe90fb465b616b4ca!8m2!3d-7.683773!4d110.3392925!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11cn9kd8d2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sleman/@-7.683773,110.2671947,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f7b21397913:0xe90fb465b616b4ca!8m2!3d-7.683773!4d110.3392925!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11cn9kd8d2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1420,25 +1394,24 @@
           <t>(0274) 4532634</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-7.746157</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.746157</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.380353</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Mlati+(MUHATI)/@-7.7461567,110.3082555,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5902ee6ef8d1:0x96b3390c1f11b3be!8m2!3d-7.7461567!4d110.3803533!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11f03q8n5j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Mlati+(MUHATI)/@-7.7461567,110.3082555,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5902ee6ef8d1:0x96b3390c1f11b3be!8m2!3d-7.7461567!4d110.3803533!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11f03q8n5j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1465,25 +1438,24 @@
           <t>(0274) 4342648</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.813489</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.813489</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.311611</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Gamping/@-7.8134889,110.2395133,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af816bd418bd7:0xdd93e27b24cc0fba!8m2!3d-7.8134889!4d110.3116111!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1rq7bq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Gamping/@-7.8134889,110.2395133,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af816bd418bd7:0xdd93e27b24cc0fba!8m2!3d-7.8134889!4d110.3116111!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1rq7bq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1510,25 +1482,24 @@
           <t>(0274) 798647</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>-7.781343</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.781343</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.316623</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+3+Godean/@-7.8134889,110.2395133,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7e8e4d5a299:0xea685fcdc6592c91!8m2!3d-7.7813435!4d110.3166228!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm50py37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+3+Godean/@-7.8134889,110.2395133,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7e8e4d5a299:0xea685fcdc6592c91!8m2!3d-7.7813435!4d110.3166228!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm50py37?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1551,25 +1522,24 @@
           <t>(0274) 624813</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.6</v>
+        <v>-7.752526</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.752526</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.36791</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Karitas+Nandan/@-7.752526,110.2958125,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58f8354d8971:0x35e356bdeb6b3534!8m2!3d-7.752526!4d110.3679103!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2d9f18?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Karitas+Nandan/@-7.752526,110.2958125,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58f8354d8971:0x35e356bdeb6b3534!8m2!3d-7.752526!4d110.3679103!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2d9f18?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1596,25 +1566,24 @@
           <t>(0274) 885664</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>-7.761186</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.761186</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.428074</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Depok/@-7.7611864,110.3559758,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a28bc6e50fb:0x21314e8cf852d45d!8m2!3d-7.7611864!4d110.4280736!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11c61thrdl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Depok/@-7.7611864,110.3559758,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a28bc6e50fb:0x21314e8cf852d45d!8m2!3d-7.7611864!4d110.4280736!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11c61thrdl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1641,25 +1610,24 @@
           <t>0857-9999-4889</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.9</v>
+        <v>-7.762219</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.762219</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.389555</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP-SMA+SahabatQu/@-7.7622193,110.317457,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59af85d26f45:0x39ab087d7123fa80!8m2!3d-7.7622193!4d110.3895548!15sCgpTTVAgU2xlbWFukgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F119tvcjdp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP-SMA+SahabatQu/@-7.7622193,110.317457,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59af85d26f45:0x39ab087d7123fa80!8m2!3d-7.7622193!4d110.3895548!15sCgpTTVAgU2xlbWFukgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F119tvcjdp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1686,25 +1654,24 @@
           <t>(0274) 881439</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F29" t="n">
-        <v>3.9</v>
+        <v>-7.740304</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.740304</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.394705</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Piri+Ngaglik/@-7.7622193,110.317457,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5917cd4cb4ab:0x75106ddeecf07eff!8m2!3d-7.7403038!4d110.3947047!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1td8vmsm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Piri+Ngaglik/@-7.7622193,110.317457,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5917cd4cb4ab:0x75106ddeecf07eff!8m2!3d-7.7403038!4d110.3947047!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1td8vmsm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1723,25 +1690,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.741754</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.741754</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.322989</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Mlati/@-7.7417544,110.2508913,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af61e1a14bcfb:0x941b7ba1e7b94be9!8m2!3d-7.7417544!4d110.3229891!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm65gpcp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1764,25 +1730,24 @@
           <t>(0274) 865291</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>-7.689327</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.689327</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.342325</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Kanisius+Sleman/@-7.7417544,110.2508913,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f66018371db:0xbe21f32358580da1!8m2!3d-7.6893273!4d110.3423247!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2zyf9n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Kanisius+Sleman/@-7.7417544,110.2508913,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f66018371db:0xbe21f32358580da1!8m2!3d-7.6893273!4d110.3423247!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2zyf9n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1809,25 +1774,24 @@
           <t>(0274) 868083</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>-7.723553</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.723553</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.360985</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Santo+Aloysius+Sleman/@-7.7235534,110.2888868,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58cf52f9c121:0xe180fb59d54f51c1!8m2!3d-7.7235534!4d110.3609846!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4mwgbj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Santo+Aloysius+Sleman/@-7.7235534,110.2888868,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58cf52f9c121:0xe180fb59d54f51c1!8m2!3d-7.7235534!4d110.3609846!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4mwgbj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1850,25 +1814,24 @@
           <t>(0274) 2827440</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.804554</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.804554</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.302521</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Gamping/@-7.8045545,110.2304228,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af848725c3ad9:0xe3e9e5e7bd696cdf!8m2!3d-7.8045545!4d110.3025206!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11qnlhh942?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1887,25 +1850,24 @@
           <t>(0274) 864575</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.731792</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.731792</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.330615</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pamungkas+Mlati/@-7.7317918,110.2585167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af61e1a87c4df:0x1dd7c6857f1e23a7!8m2!3d-7.7317918!4d110.3306145!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm64pzbj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pamungkas+Mlati/@-7.7317918,110.2585167,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af61e1a87c4df:0x1dd7c6857f1e23a7!8m2!3d-7.7317918!4d110.3306145!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm64pzbj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1932,25 +1894,24 @@
           <t>0821-3870-5305</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>-7.750494</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.750494</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.374974</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Islam+Al+Azhar+26+Yogyakarta/@-7.750494,110.302876,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a599a1fab85ff:0x18a4aaeea7cf1026!8m2!3d-7.750494!4d110.3749738!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11tgdg3f7f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Islam+Al+Azhar+26+Yogyakarta/@-7.750494,110.302876,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a599a1fab85ff:0x18a4aaeea7cf1026!8m2!3d-7.750494!4d110.3749738!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11tgdg3f7f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1969,25 +1930,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.2</v>
+        <v>-7.696737</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.696737</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.372831</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+5+Sleman/@-7.750494,110.302876,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f215e265f4d:0x49dd178dc3eb14be!8m2!3d-7.6967365!4d110.3728312!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm64vvln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+5+Sleman/@-7.750494,110.302876,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f215e265f4d:0x49dd178dc3eb14be!8m2!3d-7.6967365!4d110.3728312!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm64vvln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2014,25 +1974,24 @@
           <t>(0274) 798097</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.7</v>
+        <v>-7.762264</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.762264</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.290893</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMPN+1+Godean,+SMP+terbaik+di+Jogja/@-7.7622638,110.2187953,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7c2dab070ff:0x4b54c4f8a74bc589!8m2!3d-7.7622638!4d110.2908931!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1td3cg8l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2055,25 +2014,24 @@
           <t>(0274) 869247</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.682207</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.682207</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.357851</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sleman/@-7.6822068,110.2857531,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f0d9e32a575:0xc3342f77754d6a28!8m2!3d-7.6822068!4d110.3578509!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2fpp1r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sleman/@-7.6822068,110.2857531,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f0d9e32a575:0xc3342f77754d6a28!8m2!3d-7.6822068!4d110.3578509!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2fpp1r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2100,25 +2058,24 @@
           <t>(0274) 4462295</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.748999</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.748999</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.408459</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Depok/@-7.7489987,110.3363615,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5974327a4091:0xa61c98e951746df2!8m2!3d-7.7489987!4d110.4084593!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5613m5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Depok/@-7.7489987,110.3363615,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5974327a4091:0xa61c98e951746df2!8m2!3d-7.7489987!4d110.4084593!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5613m5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2145,25 +2102,24 @@
           <t>(0274) 497981</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.9</v>
+        <v>-7.804729</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.804729</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.444563</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Berbah/@-7.804729,110.3724652,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a50bc872769e7:0x28dc61816a625235!8m2!3d-7.804729!4d110.444563!15sCgpTTVAgU2xlbWFuWgwiCnNtcCBzbGVtYW6SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm45_3m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Berbah/@-7.804729,110.3724652,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a50bc872769e7:0x28dc61816a625235!8m2!3d-7.804729!4d110.444563!15sCgpTTVAgU2xlbWFuWgwiCnNtcCBzbGVtYW6SAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm45_3m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2190,25 +2146,24 @@
           <t>(0274) 562057</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.8</v>
+        <v>-7.762372</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.762372</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.389464</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Tahfidzqu/@-7.7623717,110.3173661,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59af90597a4f:0x23326e57fd21f6bb!8m2!3d-7.7623717!4d110.3894639!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g6bnyvgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Tahfidzqu/@-7.7623717,110.3173661,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a59af90597a4f:0x23326e57fd21f6bb!8m2!3d-7.7623717!4d110.3894639!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g6bnyvgj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2235,25 +2190,24 @@
           <t>(0274) 882716</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>-7.716222</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.716222</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.40712</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Ngaglik/@-7.7623717,110.3173661,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a594be838e915:0x61f37223ad320a6!8m2!3d-7.7162217!4d110.40712!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzx9_55?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Ngaglik/@-7.7623717,110.3173661,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a594be838e915:0x61f37223ad320a6!8m2!3d-7.7162217!4d110.40712!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hdzx9_55?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2280,25 +2234,24 @@
           <t>0811-2645-002</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.1</v>
+        <v>-7.803462</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.803462</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.310442</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Gamping/@-7.8034617,110.2383439,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a57f9c934ddaf:0x4d9cec697aa4fe62!8m2!3d-7.8034617!4d110.3104417!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm66jkdn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Gamping/@-7.8034617,110.2383439,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a57f9c934ddaf:0x4d9cec697aa4fe62!8m2!3d-7.8034617!4d110.3104417!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm66jkdn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2321,25 +2274,24 @@
           <t>(0274) 867396</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.1</v>
+        <v>-7.680334</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.680334</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.344335</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Sleman/@-7.6803338,110.2722373,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f68545a5a4d:0x12bbc99a9814ee56!8m2!3d-7.6803338!4d110.3443351!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzsrq5_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Sleman/@-7.6803338,110.2722373,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f68545a5a4d:0x12bbc99a9814ee56!8m2!3d-7.6803338!4d110.3443351!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzsrq5_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2358,25 +2310,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.722969</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.722969</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.308615</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Seyegan/@-7.7229689,110.2365175,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af60cead68899:0xda28b8aa70629b42!8m2!3d-7.7229689!4d110.3086153!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm67429p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Seyegan/@-7.7229689,110.2365175,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af60cead68899:0xda28b8aa70629b42!8m2!3d-7.7229689!4d110.3086153!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm67429p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2399,25 +2350,24 @@
           <t>(0274) 497029</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>-7.790476</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.790476</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.459407</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Berbah/@-7.790476,110.3873091,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a77cc621dbf:0x734d03fd78948469!8m2!3d-7.790476!4d110.4594069!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1pqs0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Berbah/@-7.790476,110.3873091,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a77cc621dbf:0x734d03fd78948469!8m2!3d-7.790476!4d110.4594069!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1pqs0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2444,25 +2394,24 @@
           <t>(0274) 2875790</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.8</v>
+        <v>-7.690266</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.690266</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.397772</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Islam+Terpadu+Salman+Al+Farisi+Boarding+School+Jogja/@-7.6902658,110.3256737,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5ee8991c2985:0x10521cbb4e48011d!8m2!3d-7.6902658!4d110.3977715!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bw7vn6r6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Islam+Terpadu+Salman+Al+Farisi+Boarding+School+Jogja/@-7.6902658,110.3256737,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5ee8991c2985:0x10521cbb4e48011d!8m2!3d-7.6902658!4d110.3977715!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bw7vn6r6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2485,25 +2434,24 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.4</v>
+        <v>-7.713201</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.713201</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.331648</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+Bakti+Insani+Sleman/@-7.7132015,110.2595505,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f5577449b55:0x18ef7a1a5be28bf8!8m2!3d-7.7132015!4d110.3316483!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11f_kmtk4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+Bakti+Insani+Sleman/@-7.7132015,110.2595505,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5f5577449b55:0x18ef7a1a5be28bf8!8m2!3d-7.7132015!4d110.3316483!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11f_kmtk4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2526,25 +2474,24 @@
           <t>(0274) 497809</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.8</v>
+        <v>-7.757324</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.757324</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.448924</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+3+Kalasan/@-7.7573242,110.3768264,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a5dd4b623c5:0xee7cfb18e1c5d96c!8m2!3d-7.7573242!4d110.4489242!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11h0f0s6n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2567,25 +2514,24 @@
           <t>(0274) 4461001</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.699745</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.699745</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.446457</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Ngemplak+(%EA%A6%B1%EA%A7%88%EA%A6%A9%EA%A7%88%EA%A6%A5%EA%A7%88%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%94%EA%A6%BC%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%80)/@-7.699745,110.3743592,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58717c7e1217:0x1d206a88fd8da4a8!8m2!3d-7.699745!4d110.446457!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6b5fljl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Ngemplak+(%EA%A6%B1%EA%A7%88%EA%A6%A9%EA%A7%88%EA%A6%A5%EA%A7%88%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%94%EA%A6%BC%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%80)/@-7.699745,110.3743592,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58717c7e1217:0x1d206a88fd8da4a8!8m2!3d-7.699745!4d110.446457!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6b5fljl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2612,25 +2558,24 @@
           <t>(0274) 496122</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>-7.766767</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.766767</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.471447</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pramuka+SMPN+1+KALASAN/@-7.7667672,110.3993495,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a5808ac9451:0xf541596ff59c41d6!8m2!3d-7.7667672!4d110.4714473!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1w0r27c4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pramuka+SMPN+1+KALASAN/@-7.7667672,110.3993495,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5a5808ac9451:0xf541596ff59c41d6!8m2!3d-7.7667672!4d110.4714473!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1w0r27c4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2657,25 +2602,24 @@
           <t>(0274) 869132</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.1</v>
+        <v>-7.658566</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.658566</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.327971</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Tempel/@-7.6585657,110.2558731,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a585c82f3f71b:0xbbd7d5bf5ed79af8!8m2!3d-7.6585657!4d110.3279709!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1tg7j7j0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Tempel/@-7.6585657,110.2558731,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a585c82f3f71b:0xbbd7d5bf5ed79af8!8m2!3d-7.6585657!4d110.3279709!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1tg7j7j0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2702,25 +2646,24 @@
           <t>(0274) 6947574</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>-7.76398</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.76398</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.315059</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Godean/@-7.7639798,110.2429611,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7ceec285665:0xa1ce6f8c56a90b0c!8m2!3d-7.7639798!4d110.3150589!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4h4q3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Godean/@-7.7639798,110.2429611,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7ceec285665:0xa1ce6f8c56a90b0c!8m2!3d-7.7639798!4d110.3150589!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4h4q3t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2747,25 +2690,24 @@
           <t>0857-0457-0001</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.8</v>
+        <v>-7.749159</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.749159</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.327398</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+dan+Pesantren+Bumi+Cendekia+Yogyakarta/@-7.7639798,110.2429611,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af719db1c6717:0xa3849c9523f77f09!8m2!3d-7.7491588!4d110.3273983!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11h22vz6vp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+dan+Pesantren+Bumi+Cendekia+Yogyakarta/@-7.7639798,110.2429611,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af719db1c6717:0xa3849c9523f77f09!8m2!3d-7.7491588!4d110.3273983!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11h22vz6vp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2792,25 +2734,24 @@
           <t>(0274) 6498510</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.4</v>
+        <v>-7.785887</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.785887</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.26986</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Moyudan/@-7.7858874,110.1977621,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af76e10598a1b:0x762c55ee445654ec!8m2!3d-7.7858874!4d110.2698599!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5d8q9j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Moyudan/@-7.7858874,110.1977621,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af76e10598a1b:0x762c55ee445654ec!8m2!3d-7.7858874!4d110.2698599!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5d8q9j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2833,25 +2774,24 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.7</v>
+        <v>-7.73259</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.73259</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.331726</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Mlati/@-7.7325902,110.259628,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58a09a8cebe7:0x2cec6ca3f7bde542!8m2!3d-7.7325902!4d110.3317258!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm51b1n4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+3+Mlati/@-7.7325902,110.259628,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a58a09a8cebe7:0x2cec6ca3f7bde542!8m2!3d-7.7325902!4d110.3317258!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm51b1n4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2878,25 +2818,24 @@
           <t>(0274) 496848</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.783899</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.783899</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.482085</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Prambanan+Sleman/@-7.7838989,110.409987,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5b40bea0f237:0xa6a5e8ab2b0bbb34!8m2!3d-7.7838989!4d110.4820848!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11tp74pmcf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Prambanan+Sleman/@-7.7838989,110.409987,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a5b40bea0f237:0xa6a5e8ab2b0bbb34!8m2!3d-7.7838989!4d110.4820848!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11tp74pmcf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2923,25 +2862,24 @@
           <t>(0274) 798040</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.7</v>
+        <v>-7.774393</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.774393</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.285668</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Godean/@-7.7743931,110.2135697,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7a72d45eb5d:0xcf02db31439dba0e!8m2!3d-7.7743931!4d110.2856675!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm6dmwbl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Godean/@-7.7743931,110.2135697,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af7a72d45eb5d:0xcf02db31439dba0e!8m2!3d-7.7743931!4d110.2856675!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm6dmwbl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2960,25 +2898,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.6</v>
+        <v>-7.701921</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.701921</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.283668</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Tempel/@-7.701921,110.2115698,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af5cb5175c381:0xe7a3d7423dabd7c2!8m2!3d-7.701921!4d110.2836676!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf2m4spy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Tempel/@-7.701921,110.2115698,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7af5cb5175c381:0xe7a3d7423dabd7c2!8m2!3d-7.701921!4d110.2836676!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf2m4spy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3001,25 +2938,24 @@
           <t>(0274) 867880</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.5</v>
+        <v>-7.716088</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.716088</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.387539</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Ngaglik/@-7.7160885,110.3154413,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a592c51006149:0x76042c600502bcda!8m2!3d-7.7160885!4d110.3875391!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzyg4xkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Ngaglik/@-7.7160885,110.3154413,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a592c51006149:0x76042c600502bcda!8m2!3d-7.7160885!4d110.3875391!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzyg4xkn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3046,25 +2982,24 @@
           <t>(0274) 2842625</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.3</v>
+        <v>-7.813956</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.813956</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.473531</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Berbah/@-7.8139562,110.4014329,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a505d8f5b913b:0x3c19f1efd79ec468!8m2!3d-7.8139562!4d110.4735307!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r9hy9ps?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Berbah/@-7.8139562,110.4014329,13z/data=!4m10!1m2!2m1!1sSMP+Sleman!3m6!1s0x2e7a505d8f5b913b:0x3c19f1efd79ec468!8m2!3d-7.8139562!4d110.4735307!15sCgpTTVAgU2xlbWFukgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11r9hy9ps?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
